--- a/medicine/Enfance/Michèle_Moreau/Michèle_Moreau.xlsx
+++ b/medicine/Enfance/Michèle_Moreau/Michèle_Moreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Moreau</t>
+          <t>Michèle_Moreau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Moreau est éditrice et auteur d'ouvrages pour la jeunesse française, née en Anjou en 1959. Elle a été directrice éditoriale chez Didier Jeunesse de 2005 à 2023. Elle est également traductrice et formatrice[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Moreau est éditrice et auteur d'ouvrages pour la jeunesse française, née en Anjou en 1959. Elle a été directrice éditoriale chez Didier Jeunesse de 2005 à 2023. Elle est également traductrice et formatrice.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Moreau</t>
+          <t>Michèle_Moreau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à HEC, elle est entrée dans l’édition technique, puis scolaire avant de créer une première collection autour des comptines au sein des éditions Didier en 1988. Elle y a construit un catalogue centré sur la littérature écrite et orale (contes, comptines, poésie) et pour la musique. Elle est aussi auteure de plusieurs livres-disques et a traduit de nombreux albums. Elle participe régulièrement à des formations pour les professionnels du livre et de l’enfance[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à HEC, elle est entrée dans l’édition technique, puis scolaire avant de créer une première collection autour des comptines au sein des éditions Didier en 1988. Elle y a construit un catalogue centré sur la littérature écrite et orale (contes, comptines, poésie) et pour la musique. Elle est aussi auteure de plusieurs livres-disques et a traduit de nombreux albums. Elle participe régulièrement à des formations pour les professionnels du livre et de l’enfance,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Moreau</t>
+          <t>Michèle_Moreau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En tant qu'auteure
-Écoute Papa qui parle avec les animaux, illustrations de Charles Dutertre, Didier jeunesse, 2018
+          <t>En tant qu'auteure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Écoute Papa qui parle avec les animaux, illustrations de Charles Dutertre, Didier jeunesse, 2018
 Écoute Papa qui jardine et qui joue, illustrations de Charles Dutertre, Didier jeunesse, 2018
 Papa siffle et papa souffle, illustrations de Charles Dutertre, Didier Jeunesse, 2018
 Debout Groucho ! (livre CD), illustrée par Nathalie Choux, Antoine Delecroix, compositeur, racontée par Olivier Saladin, chanté par Gibus, Didier Jeunesse, 2015
@@ -554,9 +573,43 @@
 Le doudou de Lulu, illustrée par Martine Bourre, Didier Jeunesse, 2010
 Lulu, la mouche et l'chat (2008)
 L'est où l'doudou d'Lulu ? (2005)
-Témoignages d'éditeurs : Didier Jeunesse. - Michèle Moreau.
-En tant que traductrice
-La toute petite mouche, auteur : Michael Rosen, 2011
+Témoignages d'éditeurs : Didier Jeunesse. - Michèle Moreau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michèle_Moreau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mich%C3%A8le_Moreau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant que traductrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La toute petite mouche, auteur : Michael Rosen, 2011
 Premiers pas, écrit et illustré par Bob Graham, 2014</t>
         </is>
       </c>
